--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 1 (7, 32, 40, 15, 34)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(7, 32, 40, 15, 34)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999994751404236</v>
+        <v>0.9999994693310038</v>
       </c>
       <c r="E2">
-        <v>0.9999994751404236</v>
+        <v>0.9999994693310038</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999996736315432</v>
+        <v>0.9999996710763952</v>
       </c>
       <c r="E3">
-        <v>0.9999996736315432</v>
+        <v>0.9999996710763952</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.3991988888212057</v>
+        <v>0.3994707376023923</v>
       </c>
       <c r="E4">
-        <v>0.3991988888212057</v>
+        <v>0.3994707376023923</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9672803848954034</v>
+        <v>0.966933350705273</v>
       </c>
       <c r="E5">
-        <v>0.9672803848954034</v>
+        <v>0.966933350705273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9854112640125771</v>
+        <v>0.985380069886631</v>
       </c>
       <c r="E6">
-        <v>0.9854112640125771</v>
+        <v>0.985380069886631</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.996177549241406</v>
+        <v>0.8699587349927055</v>
       </c>
       <c r="E7">
-        <v>0.003822450758593998</v>
+        <v>0.1300412650072945</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9964423355606081</v>
+        <v>2.416037725771704E-07</v>
       </c>
       <c r="E8">
-        <v>0.003557664439391872</v>
+        <v>0.9999997583962275</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9956365869464296</v>
+        <v>6.096162340735897E-06</v>
       </c>
       <c r="E9">
-        <v>0.004363413053570353</v>
+        <v>0.9999939038376593</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9958601984155153</v>
+        <v>2.811749717891434E-07</v>
       </c>
       <c r="E10">
-        <v>0.004139801584484681</v>
+        <v>0.9999997188250282</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9961702458943484</v>
+        <v>0.3864789523720936</v>
       </c>
       <c r="E11">
-        <v>0.003829754105651562</v>
+        <v>0.6135210476279064</v>
       </c>
       <c r="F11">
-        <v>3.757189989089966</v>
+        <v>8.09391975402832</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999999857991451</v>
+        <v>0.9999999857401505</v>
       </c>
       <c r="E12">
-        <v>0.9999999857991451</v>
+        <v>0.9999999857401505</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999999955929</v>
+        <v>0.9999999999954774</v>
       </c>
       <c r="E13">
-        <v>0.9999999999955929</v>
+        <v>0.9999999999954774</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7104383645533043</v>
+        <v>0.710221910929034</v>
       </c>
       <c r="E14">
-        <v>0.7104383645533043</v>
+        <v>0.710221910929034</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>7.960738836842811E-05</v>
+        <v>8.051458931515577E-05</v>
       </c>
       <c r="E15">
-        <v>7.960738836842811E-05</v>
+        <v>8.051458931515577E-05</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9984176167068417</v>
+        <v>0.9984148830855072</v>
       </c>
       <c r="E16">
-        <v>0.9984176167068417</v>
+        <v>0.9984148830855072</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9991315171786397</v>
+        <v>0.9804361248343552</v>
       </c>
       <c r="E17">
-        <v>0.0008684828213603168</v>
+        <v>0.01956387516564484</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9992123083458826</v>
+        <v>2.501861133084964E-10</v>
       </c>
       <c r="E18">
-        <v>0.0007876916541174062</v>
+        <v>0.9999999997498139</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9989704234564406</v>
+        <v>2.290886819987316E-06</v>
       </c>
       <c r="E19">
-        <v>0.001029576543559396</v>
+        <v>0.99999770911318</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9990406500851022</v>
+        <v>4.771315079648401E-10</v>
       </c>
       <c r="E20">
-        <v>0.0009593499148977669</v>
+        <v>0.9999999995228684</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9991364074810324</v>
+        <v>0.09296938557109211</v>
       </c>
       <c r="E21">
-        <v>0.0008635925189676152</v>
+        <v>0.9070306144289079</v>
       </c>
       <c r="F21">
-        <v>5.191058158874512</v>
+        <v>11.0827465057373</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
